--- a/APP/UFC Fight Night Hill vs. Rountree.xlsx
+++ b/APP/UFC Fight Night Hill vs. Rountree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP\online\Predictions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP\online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A723EE5-8C59-4521-933B-7CF1384275C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A915E00E-2284-4ED1-B26B-D04A98223002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F06FFFB0-7726-4791-8DEC-3E472B33060A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50FFC809-6C74-4994-8FAB-32ACF7647C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
-    <t>Fighter B</t>
+    <t>Fighter 2</t>
+  </si>
+  <si>
+    <t>Fighter 1</t>
+  </si>
+  <si>
+    <t>Prediction</t>
   </si>
   <si>
     <t>Winner</t>
@@ -97,12 +103,6 @@
   </si>
   <si>
     <t>Jamahal Hill</t>
-  </si>
-  <si>
-    <t>Fighter A</t>
-  </si>
-  <si>
-    <t>Prediction</t>
   </si>
 </sst>
 </file>
@@ -454,187 +454,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF9CCF3-26DE-41B2-AF7F-D4CC1029E270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98411831-AE66-4E84-B9F5-59415932CF9C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
